--- a/xueqiu_stock/stock_index_data/DJI.xlsx
+++ b/xueqiu_stock/stock_index_data/DJI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +628,65 @@
         <v>377000000</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tue Oct 31 00:50:03 2023</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dow Jones Industrial Average</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Trading in Progress</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>32745.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>+327.69  +1.01%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>32802.36</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32537.54</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35679.13</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32537.54</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32417.59</v>
+      </c>
+      <c r="M4" t="n">
+        <v>31429.82</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="O4" t="n">
+        <v>134000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
